--- a/스토리보드/침대학교 테이블 v1.0.xlsx
+++ b/스토리보드/침대학교 테이블 v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Workspace\ChimAcademy\스토리보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="12195" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="회원" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="수강" sheetId="6" r:id="rId4"/>
     <sheet name="학생" sheetId="3" r:id="rId5"/>
     <sheet name="교수" sheetId="5" r:id="rId6"/>
+    <sheet name="ebook" sheetId="7" r:id="rId7"/>
+    <sheet name="내서재" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="187">
   <si>
     <t>물리</t>
   </si>
@@ -577,6 +579,198 @@
   </si>
   <si>
     <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : cu_ebook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>belong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속도서관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 최대 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 최대 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 저자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원기기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC, mobilie,태블릿 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제별(인문,철학 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹(전자책,구독형,오디오북)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 카테고리(인문학,비문학 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구홍모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu_mylib</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책을 출판한 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1182,41 +1376,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1842,24 +2036,24 @@
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="49" t="s">
         <v>119</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -1876,7 +2070,7 @@
       <c r="H24" s="31"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -1893,7 +2087,7 @@
       <c r="H25" s="31"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -1910,10 +2104,10 @@
       <c r="H26" s="31"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="34" t="s">
@@ -1950,10 +2144,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -2107,7 +2301,7 @@
       <c r="D12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2121,7 +2315,7 @@
       <c r="D13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2368,10 +2562,10 @@
       <c r="B14" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="25" t="s">
@@ -2856,7 +3050,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3023,4 +3217,477 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/스토리보드/침대학교 테이블 v1.0.xlsx
+++ b/스토리보드/침대학교 테이블 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="12195" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="12195" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="회원" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="219">
   <si>
     <t>물리</t>
   </si>
@@ -658,14 +658,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대출 최대 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 최대 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>책 제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -770,7 +762,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내서재번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대츨일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제반납일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 허용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납일(대출일로부터 2주,  연장시 1주일 추가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출중,예약중,지난대출,관심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 예약 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 대출 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 대출 최대 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 예약 최대 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통사,공급사(교보문고,예스24 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bIntro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aIntro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1249,7 +1377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,6 +1539,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3221,16 +3352,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
@@ -3238,7 +3369,7 @@
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -3285,19 +3416,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -3313,10 +3444,10 @@
         <v>45</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
@@ -3332,10 +3463,10 @@
         <v>45</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -3351,10 +3482,10 @@
         <v>47</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -3367,13 +3498,13 @@
         <v>153</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -3386,13 +3517,13 @@
         <v>154</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
@@ -3409,7 +3540,7 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -3425,7 +3556,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -3444,7 +3575,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
@@ -3457,13 +3588,13 @@
         <v>149</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -3476,38 +3607,147 @@
         <v>150</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3520,21 +3760,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -3568,7 +3812,9 @@
       <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
@@ -3578,66 +3824,101 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>195</v>
+      </c>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
+        <v>177</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
@@ -3689,5 +3970,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/스토리보드/침대학교 테이블 v1.0.xlsx
+++ b/스토리보드/침대학교 테이블 v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Workspace\ChimAcademy\스토리보드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Workspace\popol\ChimAcademy\스토리보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="12195" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="12195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="회원" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="220">
   <si>
     <t>물리</t>
   </si>
@@ -899,6 +899,10 @@
   </si>
   <si>
     <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1534,14 +1538,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2275,10 +2279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -2477,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3354,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3726,6 +3730,9 @@
       <c r="D23" s="8" t="s">
         <v>218</v>
       </c>
+      <c r="F23" s="25" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
@@ -3737,6 +3744,9 @@
       <c r="D24" s="8" t="s">
         <v>218</v>
       </c>
+      <c r="F24" s="25" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
@@ -3747,6 +3757,9 @@
       </c>
       <c r="D25" s="8" t="s">
         <v>218</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3843,7 @@
       <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>195</v>
       </c>
       <c r="H7" s="15"/>
